--- a/DragPrediction/NL2VP DragX/0.75L/n/4/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.75L/n/4/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>7.7407718753826446E-2</v>
+        <v>0.39805138800000001</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E137)</f>
-        <v>2.1725863297303896</v>
+        <v>11.172025452000002</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E25" si="0">A3*$E$1</f>
-        <v>0.70540949414607024</v>
+        <v>3.6274060620000004</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>7.9605015289090905E-2</v>
+        <v>0.40935048000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.55074877546956202</v>
+        <v>2.8320988920000003</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>9.3349851390706617E-2</v>
+        <v>0.48003013800000005</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.31504021060715703</v>
+        <v>1.6200218160000002</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>4.1455041650132238E-2</v>
+        <v>0.21317301600000002</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-9.1014359077425624E-2</v>
+        <v>-0.468020406</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>4.9225989537421487E-2</v>
+        <v>0.25313332799999999</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-8.1031249624376037E-2</v>
+        <v>-0.41668456200000004</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>6.714812790115289E-2</v>
+        <v>0.34529380199999998</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>2.3486854362260331E-2</v>
+        <v>0.120775746</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4.8040617701764467E-2</v>
+        <v>0.24703782600000004</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.19847475082274382</v>
+        <v>1.0206107520000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4.8837260822355379E-2</v>
+        <v>0.25113438000000005</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.17956486385295867</v>
+        <v>0.92337100800000005</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4.1545881688140496E-2</v>
+        <v>0.21364014000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>7.4689313056090917E-2</v>
+        <v>0.38407261200000004</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>5.91227102940124E-2</v>
+        <v>0.30402493800000002</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-0.12978685079019422</v>
+        <v>-0.66739902600000012</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>5.1797133422057856E-2</v>
+        <v>0.26635484400000004</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-0.13095536470115701</v>
+        <v>-0.67340783999999998</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>3.1893470158028923E-2</v>
+        <v>0.16400483400000002</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,10 +806,11 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-0.13146892700199175</v>
+        <v>-0.67604871600000005</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>